--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814975FC-8C9E-4764-AF8C-BAB2B26D55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -1857,18 +1860,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">

--- a/DSA sheet.xlsx
+++ b/DSA sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814975FC-8C9E-4764-AF8C-BAB2B26D55D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928EC98-6296-41E3-8590-C11BBA452718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1498,12 +1498,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1519,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1543,6 +1549,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1550,6 +1559,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1860,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2428,7 +2442,7 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="11" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2906,8 +2920,8 @@
       <c r="B101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>4</v>
+      <c r="C101" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
